--- a/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/united_kingdom/united_kingdom_financial_svcs_non_bank_insurance.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="E2">
-        <v>0.139</v>
+        <v>0.0872</v>
       </c>
       <c r="F2">
-        <v>0.07000000000000001</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="G2">
-        <v>0.07795239447456741</v>
+        <v>0.2753635101281118</v>
       </c>
       <c r="H2">
-        <v>0.07686251325645095</v>
+        <v>0.2727638916604958</v>
       </c>
       <c r="I2">
-        <v>0.1336360705817073</v>
+        <v>0.1848631630652241</v>
       </c>
       <c r="J2">
-        <v>0.1117027111675318</v>
+        <v>0.1568995556611142</v>
       </c>
       <c r="K2">
-        <v>4047.602</v>
+        <v>1563.957</v>
       </c>
       <c r="L2">
-        <v>0.09608602291848498</v>
+        <v>0.05899745330717356</v>
       </c>
       <c r="M2">
-        <v>2277.943</v>
+        <v>4983.736</v>
       </c>
       <c r="N2">
-        <v>0.0371425631814396</v>
+        <v>0.08104351327279791</v>
       </c>
       <c r="O2">
-        <v>0.5627882879789071</v>
+        <v>3.186619580973134</v>
       </c>
       <c r="P2">
-        <v>979.298</v>
+        <v>4932.981000000001</v>
       </c>
       <c r="Q2">
-        <v>0.01596775592649045</v>
+        <v>0.08021815584693089</v>
       </c>
       <c r="R2">
-        <v>0.2419452307810896</v>
+        <v>3.154166642689026</v>
       </c>
       <c r="S2">
-        <v>1298.645</v>
+        <v>50.75499999999999</v>
       </c>
       <c r="T2">
-        <v>0.5700954764890955</v>
+        <v>0.01018412692807163</v>
       </c>
       <c r="U2">
-        <v>36488.588</v>
+        <v>19425.325</v>
       </c>
       <c r="V2">
-        <v>0.594957681202523</v>
+        <v>0.3158868335854694</v>
       </c>
       <c r="W2">
-        <v>0.1307973255460002</v>
+        <v>0.06286602871396518</v>
       </c>
       <c r="X2">
-        <v>0.03144467490620546</v>
+        <v>0.0211562883911477</v>
       </c>
       <c r="Y2">
-        <v>0.09935265063979477</v>
+        <v>0.04170974032281749</v>
       </c>
       <c r="Z2">
-        <v>0.5419311131266463</v>
+        <v>0.9099460112399693</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03075583336379439</v>
+        <v>0.02090876458838794</v>
       </c>
       <c r="AC2">
-        <v>-0.0309615977126435</v>
+        <v>-0.02132151786178044</v>
       </c>
       <c r="AD2">
-        <v>94716.54000000001</v>
+        <v>34705.257</v>
       </c>
       <c r="AE2">
-        <v>1300.483642487648</v>
+        <v>0.3737262595542744</v>
       </c>
       <c r="AF2">
-        <v>96017.02364248765</v>
+        <v>34705.63072625955</v>
       </c>
       <c r="AG2">
-        <v>59528.43564248765</v>
+        <v>15280.30572625955</v>
       </c>
       <c r="AH2">
-        <v>0.6102256800474426</v>
+        <v>0.360764639410841</v>
       </c>
       <c r="AI2">
-        <v>0.7105339748888261</v>
+        <v>0.650074114298524</v>
       </c>
       <c r="AJ2">
-        <v>0.4925479404019669</v>
+        <v>0.1990274237726077</v>
       </c>
       <c r="AK2">
-        <v>0.6034610995817716</v>
+        <v>0.4499253913027726</v>
       </c>
       <c r="AL2">
-        <v>1256.301</v>
+        <v>344.774</v>
       </c>
       <c r="AM2">
-        <v>1237.523</v>
+        <v>155.814</v>
       </c>
       <c r="AN2">
-        <v>15.34542066976654</v>
+        <v>6.643490776805057</v>
       </c>
       <c r="AO2">
-        <v>4.535467216853285</v>
+        <v>14.21295689350125</v>
       </c>
       <c r="AP2">
-        <v>9.644449498969209</v>
+        <v>2.925048794745039</v>
       </c>
       <c r="AQ2">
-        <v>4.604287758692162</v>
+        <v>31.44940762704249</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M&amp;G Plc (LSE:MNG)</t>
+          <t>Vector Capital Plc (AIM:VCAP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,104 +727,89 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F3">
-        <v>-0.09699999999999999</v>
-      </c>
       <c r="G3">
-        <v>0.01718227424749164</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01718227424749164</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1076735457256757</v>
+        <v>0.7878151260504203</v>
       </c>
       <c r="J3">
-        <v>0.08482301525665771</v>
+        <v>0.6378272462831287</v>
       </c>
       <c r="K3">
-        <v>1948.1</v>
+        <v>2.11</v>
       </c>
       <c r="L3">
-        <v>0.06786858974358974</v>
+        <v>0.4432773109243697</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.926</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.04079295154185023</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.4388625592417062</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.926</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.04079295154185023</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.4388625592417062</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>5876</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.7194279837406337</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03242207360787503</v>
-      </c>
-      <c r="Z3">
-        <v>62.78315227773694</v>
-      </c>
-      <c r="AA3">
-        <v>5.325456283515545</v>
+        <v>0.01801195861597682</v>
       </c>
       <c r="AB3">
-        <v>0.0309383571444496</v>
-      </c>
-      <c r="AC3">
-        <v>5.294517926371095</v>
+        <v>0.01801195861597682</v>
       </c>
       <c r="AD3">
-        <v>5127.5</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>457.192717451024</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5584.692717451024</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-291.3072825489762</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.4060917573667049</v>
-      </c>
-      <c r="AI3">
-        <v>0.340871066179671</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.03698532964671873</v>
-      </c>
-      <c r="AK3">
-        <v>-0.02772350341150668</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1.565123164738561</v>
-      </c>
-      <c r="AP3">
-        <v>-0.08891892266688325</v>
+        <v>1.05</v>
+      </c>
+      <c r="AO3">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="AQ3">
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +820,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>London Stock Exchange Group plc (LSE:LSE)</t>
+          <t>ADVFN Plc (AIM:AFN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -843,119 +828,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F4">
-        <v>0.125</v>
+      <c r="D4">
+        <v>-0.0533</v>
       </c>
       <c r="G4">
-        <v>0.5824696630383835</v>
+        <v>0.007657142857142858</v>
       </c>
       <c r="H4">
-        <v>0.5824696630383835</v>
+        <v>-0.03108571428571429</v>
       </c>
       <c r="I4">
-        <v>0.5448494631500844</v>
+        <v>-0.04525714285714286</v>
       </c>
       <c r="J4">
-        <v>0.42370256204477</v>
+        <v>-0.04525714285714286</v>
       </c>
       <c r="K4">
-        <v>610</v>
+        <v>-0.279</v>
       </c>
       <c r="L4">
-        <v>0.1588458934430498</v>
+        <v>-0.03188571428571429</v>
       </c>
       <c r="M4">
-        <v>274.45</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.007657751921762303</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.4499180327868853</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>268.1</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.007480573110673978</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.4395081967213115</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>6.350000000000023</v>
-      </c>
-      <c r="T4">
-        <v>0.02313718345782482</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1842.6</v>
+        <v>1.13</v>
       </c>
       <c r="V4">
-        <v>0.05141254760808605</v>
+        <v>0.1694152923538231</v>
       </c>
       <c r="W4">
-        <v>0.1350962283790667</v>
+        <v>-0.1291666666666667</v>
       </c>
       <c r="X4">
-        <v>0.0283718054418635</v>
+        <v>0.01867530830447699</v>
       </c>
       <c r="Y4">
-        <v>0.1067244229372032</v>
+        <v>-0.1478419749711437</v>
       </c>
       <c r="Z4">
-        <v>1.228060177413696</v>
+        <v>-41.66666666666672</v>
       </c>
       <c r="AA4">
-        <v>0.5203322435153379</v>
+        <v>1.885714285714288</v>
       </c>
       <c r="AB4">
-        <v>0.02830685527879093</v>
+        <v>0.01952899600562466</v>
       </c>
       <c r="AC4">
-        <v>0.492025388236547</v>
+        <v>1.866185289708663</v>
       </c>
       <c r="AD4">
-        <v>3199.8</v>
+        <v>0.627</v>
       </c>
       <c r="AE4">
-        <v>245.3454580552308</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3445.145458055231</v>
+        <v>0.627</v>
       </c>
       <c r="AG4">
-        <v>1602.545458055231</v>
+        <v>-0.5029999999999999</v>
       </c>
       <c r="AH4">
-        <v>0.08769699758990217</v>
+        <v>0.08592572289982185</v>
       </c>
       <c r="AI4">
-        <v>0.4171511854376116</v>
+        <v>0.2521109770808203</v>
       </c>
       <c r="AJ4">
-        <v>0.04280069206823906</v>
+        <v>-0.08156315874817575</v>
       </c>
       <c r="AK4">
-        <v>0.2497676320668969</v>
+        <v>-0.3706705969049372</v>
       </c>
       <c r="AL4">
-        <v>1123.4</v>
+        <v>0.036</v>
       </c>
       <c r="AM4">
-        <v>1110.7</v>
+        <v>0.036</v>
       </c>
       <c r="AN4">
-        <v>1.396499803604941</v>
+        <v>-2.305147058823529</v>
       </c>
       <c r="AO4">
-        <v>1.866476766957451</v>
+        <v>-11</v>
       </c>
       <c r="AP4">
-        <v>0.6994044682299267</v>
+        <v>1.849264705882352</v>
       </c>
       <c r="AQ4">
-        <v>1.887818492842352</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ramsdens Holdings PLC (AIM:RFX)</t>
+          <t>Appreciate Group plc (AIM:APP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -974,41 +956,47 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.19</v>
+      </c>
+      <c r="E5">
+        <v>-0.305</v>
+      </c>
       <c r="G5">
-        <v>0.1544227886056972</v>
+        <v>0.1027496382054993</v>
       </c>
       <c r="H5">
-        <v>0.1544227886056972</v>
+        <v>0.1027496382054993</v>
       </c>
       <c r="I5">
-        <v>0.1590195830980175</v>
+        <v>0.05926193921852388</v>
       </c>
       <c r="J5">
-        <v>0.1260314780936416</v>
+        <v>0.03236996680003405</v>
       </c>
       <c r="K5">
-        <v>7.45</v>
+        <v>1.95</v>
       </c>
       <c r="L5">
-        <v>0.1116941529235382</v>
+        <v>0.01410998552821997</v>
       </c>
       <c r="M5">
-        <v>2.73</v>
+        <v>0.251</v>
       </c>
       <c r="N5">
-        <v>0.02785714285714286</v>
+        <v>0.003110285006195787</v>
       </c>
       <c r="O5">
-        <v>0.3664429530201342</v>
+        <v>0.1287179487179487</v>
       </c>
       <c r="P5">
-        <v>2.73</v>
+        <v>0.251</v>
       </c>
       <c r="Q5">
-        <v>0.02785714285714286</v>
+        <v>0.003110285006195787</v>
       </c>
       <c r="R5">
-        <v>0.3664429530201342</v>
+        <v>0.1287179487179487</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1017,73 +1005,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>19.9</v>
+        <v>32.3</v>
       </c>
       <c r="V5">
-        <v>0.2030612244897959</v>
+        <v>0.4002478314745972</v>
       </c>
       <c r="W5">
-        <v>0.1881313131313131</v>
+        <v>0.1611570247933884</v>
       </c>
       <c r="X5">
-        <v>0.02984500672230972</v>
+        <v>0.01851475845803273</v>
       </c>
       <c r="Y5">
-        <v>0.1582863064090034</v>
+        <v>0.1426422663353557</v>
       </c>
       <c r="Z5">
-        <v>1.788349072927852</v>
+        <v>21.03500761035007</v>
       </c>
       <c r="AA5">
-        <v>0.2253882770084908</v>
+        <v>0.6809024979854954</v>
       </c>
       <c r="AB5">
-        <v>0.03013298487648485</v>
+        <v>0.01860547689060149</v>
       </c>
       <c r="AC5">
-        <v>0.1952552921320059</v>
+        <v>0.662297021094894</v>
       </c>
       <c r="AD5">
-        <v>16.5</v>
+        <v>5.75</v>
       </c>
       <c r="AE5">
-        <v>13.86696903681115</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>30.36696903681115</v>
+        <v>5.75</v>
       </c>
       <c r="AG5">
-        <v>10.46696903681115</v>
+        <v>-26.55</v>
       </c>
       <c r="AH5">
-        <v>0.2365637302544938</v>
+        <v>0.06651243493348756</v>
       </c>
       <c r="AI5">
-        <v>0.4207876462335764</v>
+        <v>0.2483801295896328</v>
       </c>
       <c r="AJ5">
-        <v>0.09649913821468456</v>
+        <v>-0.4903047091412741</v>
       </c>
       <c r="AK5">
-        <v>0.2002597286527053</v>
+        <v>2.901639344262295</v>
       </c>
       <c r="AL5">
-        <v>0.439</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="AM5">
-        <v>0.439</v>
+        <v>-0.799</v>
       </c>
       <c r="AN5">
-        <v>1.074918566775244</v>
+        <v>0.5637254901960784</v>
       </c>
       <c r="AO5">
-        <v>22.39179954441914</v>
+        <v>11.85238784370478</v>
       </c>
       <c r="AP5">
-        <v>0.6818872336684788</v>
+        <v>-2.602941176470588</v>
       </c>
       <c r="AQ5">
-        <v>22.39179954441914</v>
+        <v>-10.25031289111389</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1082,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amigo Holdings PLC (LSE:AMGO)</t>
+          <t>M&amp;G plc (LSE:MNG)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1102,116 +1090,119 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="F6">
+        <v>-0.14</v>
+      </c>
       <c r="G6">
-        <v>0.5901080159181352</v>
+        <v>0.2891355357741443</v>
       </c>
       <c r="H6">
-        <v>0.5901080159181352</v>
+        <v>0.2891355357741443</v>
       </c>
       <c r="I6">
-        <v>0.4971595459174051</v>
+        <v>0.2012631489334532</v>
       </c>
       <c r="J6">
-        <v>0.4166119915788488</v>
+        <v>0.2012631489334532</v>
       </c>
       <c r="K6">
-        <v>108.1</v>
+        <v>1352.1</v>
       </c>
       <c r="L6">
-        <v>0.3072768618533257</v>
+        <v>0.07194202497565751</v>
       </c>
       <c r="M6">
-        <v>54.5</v>
+        <v>4442.6</v>
       </c>
       <c r="N6">
-        <v>0.1303827751196172</v>
+        <v>0.6355378166888402</v>
       </c>
       <c r="O6">
-        <v>0.5041628122109159</v>
+        <v>3.285703720139043</v>
       </c>
       <c r="P6">
-        <v>54.5</v>
+        <v>4414.1</v>
       </c>
       <c r="Q6">
-        <v>0.1303827751196172</v>
+        <v>0.6314607384518548</v>
       </c>
       <c r="R6">
-        <v>0.5041628122109159</v>
+        <v>3.264625397529769</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.006415162292351325</v>
       </c>
       <c r="U6">
-        <v>34.3</v>
+        <v>7119.5</v>
       </c>
       <c r="V6">
-        <v>0.08205741626794258</v>
+        <v>1.018482754674334</v>
       </c>
       <c r="W6">
-        <v>0.40962485790072</v>
+        <v>0.1252071970293271</v>
       </c>
       <c r="X6">
-        <v>0.03836782047232476</v>
+        <v>0.02838514540095149</v>
       </c>
       <c r="Y6">
-        <v>0.3712570374283952</v>
+        <v>0.09682205162837557</v>
       </c>
       <c r="Z6">
-        <v>0.4040444139592101</v>
+        <v>2.256624842408597</v>
       </c>
       <c r="AA6">
-        <v>0.1683297479858553</v>
+        <v>0.4541754217446118</v>
       </c>
       <c r="AB6">
-        <v>0.04008008730316564</v>
+        <v>0.0242360993415522</v>
       </c>
       <c r="AC6">
-        <v>0.1282496606826897</v>
+        <v>0.4299393224030597</v>
       </c>
       <c r="AD6">
-        <v>645.6</v>
+        <v>10275.6</v>
       </c>
       <c r="AE6">
-        <v>0.7963587312844382</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>646.3963587312844</v>
+        <v>10275.6</v>
       </c>
       <c r="AG6">
-        <v>612.0963587312845</v>
+        <v>3156.1</v>
       </c>
       <c r="AH6">
-        <v>0.6072891488484249</v>
+        <v>0.5951383941758032</v>
       </c>
       <c r="AI6">
-        <v>0.6814240353988051</v>
+        <v>0.5998563931325562</v>
       </c>
       <c r="AJ6">
-        <v>0.5942127195606937</v>
+        <v>0.3110561381376646</v>
       </c>
       <c r="AK6">
-        <v>0.6694725981197768</v>
+        <v>0.3152758076438975</v>
       </c>
       <c r="AL6">
-        <v>45.8</v>
+        <v>133.7</v>
       </c>
       <c r="AM6">
-        <v>45.8</v>
+        <v>133.7</v>
       </c>
       <c r="AN6">
-        <v>3.677375256322625</v>
+        <v>2.63126088292533</v>
       </c>
       <c r="AO6">
-        <v>3.816593886462883</v>
+        <v>28.29169783096485</v>
       </c>
       <c r="AP6">
-        <v>3.486536561467786</v>
+        <v>0.8081788384717813</v>
       </c>
       <c r="AQ6">
-        <v>3.816593886462883</v>
+        <v>28.29169783096485</v>
       </c>
     </row>
     <row r="7">
@@ -1222,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Distribution Finance Capital Holdings plc (AIM:DFCH)</t>
+          <t>London Stock Exchange Group plc (LSE:LSE)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1230,101 +1221,125 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.125</v>
+      </c>
+      <c r="E7">
+        <v>0.132</v>
+      </c>
+      <c r="F7">
+        <v>0.06660000000000001</v>
+      </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.5034866568325064</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4968485986321577</v>
       </c>
       <c r="I7">
-        <v>0.02428262759647697</v>
+        <v>0.3993227839613785</v>
       </c>
       <c r="J7">
-        <v>0.02428262759647697</v>
+        <v>0.2832175013483534</v>
       </c>
       <c r="K7">
-        <v>-13.3</v>
+        <v>491.6</v>
       </c>
       <c r="L7">
-        <v>-2.577519379844961</v>
+        <v>0.1648115864288588</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>308.35</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.007142063010436884</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6272375915378355</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>303.4</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.007027410142262204</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.6171684296175752</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>4.949999999999989</v>
+      </c>
+      <c r="T7">
+        <v>0.01605318631425325</v>
       </c>
       <c r="U7">
-        <v>43.9</v>
+        <v>2031.8</v>
       </c>
       <c r="V7">
-        <v>0.3453973249409913</v>
+        <v>0.04706094900147775</v>
+      </c>
+      <c r="W7">
+        <v>0.1117755394374844</v>
       </c>
       <c r="X7">
-        <v>0.03750372181505452</v>
+        <v>0.0184895710466666</v>
+      </c>
+      <c r="Y7">
+        <v>0.09328596839081776</v>
       </c>
       <c r="Z7">
-        <v>6.342898509428315</v>
+        <v>0.9003592019076939</v>
       </c>
       <c r="AA7">
-        <v>0.1540222423866967</v>
+        <v>0.2549974834802947</v>
       </c>
       <c r="AB7">
-        <v>0.03552957633175864</v>
+        <v>0.01867492912488093</v>
       </c>
       <c r="AC7">
-        <v>0.118492666054938</v>
+        <v>0.2363225543554138</v>
       </c>
       <c r="AD7">
-        <v>179.8</v>
+        <v>2922.1</v>
       </c>
       <c r="AE7">
-        <v>0.8135082080108941</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>180.6135082080109</v>
+        <v>2922.1</v>
       </c>
       <c r="AG7">
-        <v>136.7135082080109</v>
+        <v>890.3</v>
       </c>
       <c r="AH7">
-        <v>0.5869534595989142</v>
+        <v>0.06339175501508811</v>
       </c>
       <c r="AI7">
-        <v>0.6676690912940602</v>
+        <v>0.3634678773555569</v>
       </c>
       <c r="AJ7">
-        <v>0.5182202728611434</v>
+        <v>0.02020465639829248</v>
       </c>
       <c r="AK7">
-        <v>0.6032893153153083</v>
+        <v>0.1481931521214442</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>75.56999999999999</v>
       </c>
       <c r="AN7">
-        <v>624.3055555555557</v>
+        <v>2.137756968322481</v>
+      </c>
+      <c r="AO7">
+        <v>14.35060240963855</v>
       </c>
       <c r="AP7">
-        <v>474.6996812778156</v>
+        <v>0.6513278220791572</v>
+      </c>
+      <c r="AQ7">
+        <v>15.7615455868731</v>
       </c>
     </row>
     <row r="8">
@@ -1335,7 +1350,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>International Personal Finance plc (LSE:IPF)</t>
+          <t>Ramsdens Holdings PLC (AIM:RFX)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1343,47 +1358,41 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0.0276</v>
-      </c>
-      <c r="E8">
-        <v>-0.00084</v>
-      </c>
       <c r="G8">
-        <v>0.2245292979060355</v>
+        <v>0.1583710407239819</v>
       </c>
       <c r="H8">
-        <v>0.2245292979060355</v>
+        <v>0.1583710407239819</v>
       </c>
       <c r="I8">
-        <v>0.2103046402745498</v>
+        <v>0.1256410256410256</v>
       </c>
       <c r="J8">
-        <v>0.1375185689656557</v>
+        <v>0.09703596194162233</v>
       </c>
       <c r="K8">
-        <v>90.5</v>
+        <v>6.14</v>
       </c>
       <c r="L8">
-        <v>0.07962343832482845</v>
+        <v>0.09260935143288085</v>
       </c>
       <c r="M8">
-        <v>35.2</v>
+        <v>1.99</v>
       </c>
       <c r="N8">
-        <v>0.07393404746901912</v>
+        <v>0.03390119250425894</v>
       </c>
       <c r="O8">
-        <v>0.388950276243094</v>
+        <v>0.3241042345276873</v>
       </c>
       <c r="P8">
-        <v>35.2</v>
+        <v>1.99</v>
       </c>
       <c r="Q8">
-        <v>0.07393404746901912</v>
+        <v>0.03390119250425894</v>
       </c>
       <c r="R8">
-        <v>0.388950276243094</v>
+        <v>0.3241042345276873</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1392,73 +1401,73 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>48.2</v>
+        <v>13.8</v>
       </c>
       <c r="V8">
-        <v>0.1012392354547364</v>
+        <v>0.2350936967632027</v>
       </c>
       <c r="W8">
-        <v>0.1774161929033523</v>
+        <v>0.1523573200992556</v>
       </c>
       <c r="X8">
-        <v>0.04174235325859945</v>
+        <v>0.01943050887920521</v>
       </c>
       <c r="Y8">
-        <v>0.1356738396447528</v>
+        <v>0.1329268112200504</v>
       </c>
       <c r="Z8">
-        <v>0.8566871343107434</v>
+        <v>2.296899359085398</v>
       </c>
       <c r="AA8">
-        <v>0.1178103887617019</v>
+        <v>0.2228818387919474</v>
       </c>
       <c r="AB8">
-        <v>0.03458013659954926</v>
+        <v>0.02040031514296386</v>
       </c>
       <c r="AC8">
-        <v>0.08323025216215268</v>
+        <v>0.2024815236489835</v>
       </c>
       <c r="AD8">
-        <v>935.5</v>
+        <v>11.8</v>
       </c>
       <c r="AE8">
-        <v>33.83872931973377</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>969.3387293197338</v>
+        <v>11.8</v>
       </c>
       <c r="AG8">
-        <v>921.1387293197338</v>
+        <v>-2</v>
       </c>
       <c r="AH8">
-        <v>0.6706190374295099</v>
+        <v>0.1673758865248227</v>
       </c>
       <c r="AI8">
-        <v>0.6269416262188976</v>
+        <v>0.2133815551537071</v>
       </c>
       <c r="AJ8">
-        <v>0.659256510709665</v>
+        <v>-0.03527336860670194</v>
       </c>
       <c r="AK8">
-        <v>0.6149375213351049</v>
+        <v>-0.04819277108433735</v>
       </c>
       <c r="AL8">
-        <v>79.2</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="AM8">
-        <v>79.2</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="AN8">
-        <v>3.427995602784903</v>
+        <v>1.123809523809524</v>
       </c>
       <c r="AO8">
-        <v>2.886363636363636</v>
+        <v>12.16058394160584</v>
       </c>
       <c r="AP8">
-        <v>3.375370939244169</v>
+        <v>-0.1904761904761905</v>
       </c>
       <c r="AQ8">
-        <v>2.886363636363636</v>
+        <v>12.16058394160584</v>
       </c>
     </row>
     <row r="9">
@@ -1478,46 +1487,46 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.09300000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="E9">
-        <v>0.307</v>
+        <v>0.255</v>
       </c>
       <c r="G9">
-        <v>0.1164942841589548</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="H9">
-        <v>0.1164942841589548</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="I9">
-        <v>0.1170073153419448</v>
+        <v>0.1355088495575221</v>
       </c>
       <c r="J9">
-        <v>0.09386732113465517</v>
+        <v>0.111405063043308</v>
       </c>
       <c r="K9">
-        <v>14.3</v>
+        <v>18.6</v>
       </c>
       <c r="L9">
-        <v>0.07784431137724551</v>
+        <v>0.1028761061946903</v>
       </c>
       <c r="M9">
-        <v>5.28</v>
+        <v>2.31</v>
       </c>
       <c r="N9">
-        <v>0.02967959527824621</v>
+        <v>0.0164882226980728</v>
       </c>
       <c r="O9">
-        <v>0.3692307692307693</v>
+        <v>0.1241935483870968</v>
       </c>
       <c r="P9">
-        <v>5.28</v>
+        <v>2.31</v>
       </c>
       <c r="Q9">
-        <v>0.02967959527824621</v>
+        <v>0.0164882226980728</v>
       </c>
       <c r="R9">
-        <v>0.3692307692307693</v>
+        <v>0.1241935483870968</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1526,73 +1535,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>12.1</v>
+        <v>17.3</v>
       </c>
       <c r="V9">
-        <v>0.06801573917931422</v>
+        <v>0.1234832262669522</v>
       </c>
       <c r="W9">
-        <v>0.105379513633014</v>
+        <v>0.1360643745427945</v>
       </c>
       <c r="X9">
-        <v>0.03083891411092336</v>
+        <v>0.01943236231837613</v>
       </c>
       <c r="Y9">
-        <v>0.07454059952209065</v>
+        <v>0.1166320122244183</v>
       </c>
       <c r="Z9">
-        <v>1.130609172652936</v>
+        <v>1.16795865633075</v>
       </c>
       <c r="AA9">
-        <v>0.1061272542871999</v>
+        <v>0.1301165077405045</v>
       </c>
       <c r="AB9">
-        <v>0.03090868596752767</v>
+        <v>0.01950714812386877</v>
       </c>
       <c r="AC9">
-        <v>0.07521856831967223</v>
+        <v>0.1106093596166357</v>
       </c>
       <c r="AD9">
-        <v>52.6</v>
+        <v>28.2</v>
       </c>
       <c r="AE9">
-        <v>28.17878085842367</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>80.77878085842367</v>
+        <v>28.2</v>
       </c>
       <c r="AG9">
-        <v>68.67878085842368</v>
+        <v>10.9</v>
       </c>
       <c r="AH9">
-        <v>0.312274476438925</v>
+        <v>0.1675579322638146</v>
       </c>
       <c r="AI9">
-        <v>0.3714329303280847</v>
+        <v>0.1521856449001619</v>
       </c>
       <c r="AJ9">
-        <v>0.278526727317451</v>
+        <v>0.07218543046357614</v>
       </c>
       <c r="AK9">
-        <v>0.3344005674362576</v>
+        <v>0.06488095238095237</v>
       </c>
       <c r="AL9">
-        <v>1.16</v>
+        <v>1.87</v>
       </c>
       <c r="AM9">
-        <v>1.16</v>
+        <v>1.87</v>
       </c>
       <c r="AN9">
-        <v>1.745768337205443</v>
+        <v>0.9724137931034482</v>
       </c>
       <c r="AO9">
-        <v>16.98275862068965</v>
+        <v>13.10160427807487</v>
       </c>
       <c r="AP9">
-        <v>2.279415229287212</v>
+        <v>0.3758620689655172</v>
       </c>
       <c r="AQ9">
-        <v>16.98275862068965</v>
+        <v>13.10160427807487</v>
       </c>
     </row>
     <row r="10">
@@ -1603,7 +1612,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>City of London Group plc (AIM:CIN)</t>
+          <t>International Personal Finance plc (LSE:IPF)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1611,113 +1620,119 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.0109</v>
+      </c>
       <c r="G10">
-        <v>0.453091684434968</v>
+        <v>0.247289156626506</v>
       </c>
       <c r="H10">
-        <v>0.453091684434968</v>
+        <v>0.247289156626506</v>
       </c>
       <c r="I10">
-        <v>0.3479682233547054</v>
+        <v>0.08714859437751003</v>
       </c>
       <c r="J10">
-        <v>0.3479682233547054</v>
+        <v>0.04357429718875502</v>
       </c>
       <c r="K10">
-        <v>-5.86</v>
+        <v>-28.2</v>
       </c>
       <c r="L10">
-        <v>-0.6247334754797441</v>
+        <v>-0.02831325301204819</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>15.4</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.0623229461756374</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0.5460992907801419</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>12.8</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.05180089032780252</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0.4539007092198582</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>2.6</v>
+      </c>
+      <c r="T10">
+        <v>0.1688311688311688</v>
       </c>
       <c r="U10">
-        <v>12.2</v>
+        <v>124.6</v>
       </c>
       <c r="V10">
-        <v>0.1666666666666667</v>
+        <v>0.5042492917847026</v>
       </c>
       <c r="W10">
-        <v>-0.2070671378091873</v>
+        <v>-0.04889042995839113</v>
       </c>
       <c r="X10">
-        <v>0.03571332632240483</v>
+        <v>0.04044142668785233</v>
       </c>
       <c r="Y10">
-        <v>-0.2427804641315921</v>
+        <v>-0.08933185664624346</v>
       </c>
       <c r="Z10">
-        <v>0.08120137146897881</v>
+        <v>0.694996859953946</v>
       </c>
       <c r="AA10">
-        <v>0.02825549696402602</v>
+        <v>0.0302839997208848</v>
       </c>
       <c r="AB10">
-        <v>0.0306029807600611</v>
+        <v>0.0288663906551151</v>
       </c>
       <c r="AC10">
-        <v>-0.002347483796035076</v>
+        <v>0.001417609065769695</v>
       </c>
       <c r="AD10">
-        <v>84.90000000000001</v>
+        <v>785.4</v>
       </c>
       <c r="AE10">
-        <v>0.1052903246643147</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>85.00529032466432</v>
+        <v>785.4</v>
       </c>
       <c r="AG10">
-        <v>72.80529032466431</v>
+        <v>660.8</v>
       </c>
       <c r="AH10">
-        <v>0.5373100365368245</v>
+        <v>0.7606779661016949</v>
       </c>
       <c r="AI10">
-        <v>0.687715631761291</v>
+        <v>0.620183196462413</v>
       </c>
       <c r="AJ10">
-        <v>0.4986483035153795</v>
+        <v>0.7278334618350039</v>
       </c>
       <c r="AK10">
-        <v>0.6535173519362549</v>
+        <v>0.5787353301804169</v>
       </c>
       <c r="AL10">
-        <v>6.09</v>
+        <v>74.8</v>
       </c>
       <c r="AM10">
-        <v>6.09</v>
+        <v>74.8</v>
       </c>
       <c r="AN10">
-        <v>25.61085972850679</v>
+        <v>8.080246913580247</v>
       </c>
       <c r="AO10">
-        <v>0.5221674876847291</v>
+        <v>1.160427807486631</v>
       </c>
       <c r="AP10">
-        <v>21.96238018843569</v>
+        <v>6.79835390946502</v>
       </c>
       <c r="AQ10">
-        <v>0.5221674876847291</v>
+        <v>1.160427807486631</v>
       </c>
     </row>
     <row r="11">
@@ -1728,7 +1743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Morses Club PLC (AIM:MCL)</t>
+          <t>City of London Group plc (AIM:CIN)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1737,109 +1752,112 @@
         </is>
       </c>
       <c r="G11">
-        <v>0.001596806387225549</v>
+        <v>-0.1491666666666667</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>-0.1491666666666667</v>
       </c>
       <c r="I11">
-        <v>0.009284340318384496</v>
+        <v>0.062</v>
       </c>
       <c r="J11">
-        <v>0.00737813518055193</v>
+        <v>0.062</v>
       </c>
       <c r="K11">
-        <v>16.4</v>
+        <v>-11.7</v>
       </c>
       <c r="L11">
-        <v>0.1091151031270792</v>
+        <v>-0.975</v>
       </c>
       <c r="M11">
-        <v>12.3</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.05165896682066359</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>0.7500000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.3</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.05165896682066359</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>0.7500000000000001</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="V11">
-        <v>0.03821923561528769</v>
+        <v>0.07841031149301826</v>
       </c>
       <c r="W11">
-        <v>0.1936245572609209</v>
+        <v>-0.3031088082901554</v>
       </c>
       <c r="X11">
-        <v>0.02872742933664747</v>
+        <v>0.02434099536132153</v>
       </c>
       <c r="Y11">
-        <v>0.1648971279242734</v>
+        <v>-0.3274498036514769</v>
       </c>
       <c r="Z11">
-        <v>1.637918307928579</v>
+        <v>0.1120238984316654</v>
       </c>
       <c r="AA11">
-        <v>0.01208478269059793</v>
+        <v>0.006945481702763255</v>
       </c>
       <c r="AB11">
-        <v>0.0290279552917151</v>
+        <v>0.02223112861868377</v>
       </c>
       <c r="AC11">
-        <v>-0.01694317260111716</v>
+        <v>-0.01528564691592051</v>
       </c>
       <c r="AD11">
-        <v>32</v>
+        <v>83.5</v>
       </c>
       <c r="AE11">
-        <v>3.172818250734049</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>35.17281825073405</v>
+        <v>83.5</v>
       </c>
       <c r="AG11">
-        <v>26.07281825073404</v>
+        <v>76.2</v>
       </c>
       <c r="AH11">
-        <v>0.1287095382405073</v>
+        <v>0.4728199320498301</v>
       </c>
       <c r="AI11">
-        <v>0.2909903050144232</v>
+        <v>0.7248263888888888</v>
       </c>
       <c r="AJ11">
-        <v>0.09869606730692322</v>
+        <v>0.4500886001181335</v>
       </c>
       <c r="AK11">
-        <v>0.2332661791907785</v>
+        <v>0.706209453197405</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="AN11">
-        <v>15.76354679802956</v>
+        <v>84.17338709677419</v>
+      </c>
+      <c r="AO11">
+        <v>0.1223684210526316</v>
       </c>
       <c r="AP11">
-        <v>12.84375283287391</v>
+        <v>76.81451612903226</v>
+      </c>
+      <c r="AQ11">
+        <v>0.1223684210526316</v>
       </c>
     </row>
     <row r="12">
@@ -1850,7 +1868,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1pm plc (AIM:OPM)</t>
+          <t>Mortgage Advice Bureau (Holdings) plc (AIM:MAB1)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1859,10 +1877,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.498</v>
+        <v>0.178</v>
       </c>
       <c r="E12">
-        <v>0.434</v>
+        <v>0.167</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1871,34 +1889,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.005572224014766332</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.004495899054167604</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>8.02</v>
+        <v>16.9</v>
       </c>
       <c r="L12">
-        <v>0.2010025062656642</v>
+        <v>0.09446618222470653</v>
       </c>
       <c r="M12">
-        <v>1.02</v>
+        <v>11.2</v>
       </c>
       <c r="N12">
-        <v>0.02506142506142506</v>
+        <v>0.01782020684168656</v>
       </c>
       <c r="O12">
-        <v>0.1271820448877806</v>
+        <v>0.6627218934911243</v>
       </c>
       <c r="P12">
-        <v>1.02</v>
+        <v>11.2</v>
       </c>
       <c r="Q12">
-        <v>0.02506142506142506</v>
+        <v>0.01782020684168656</v>
       </c>
       <c r="R12">
-        <v>0.1271820448877806</v>
+        <v>0.6627218934911243</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1907,67 +1925,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>2.34</v>
+        <v>44.1</v>
       </c>
       <c r="V12">
-        <v>0.05749385749385749</v>
+        <v>0.07016706443914081</v>
       </c>
       <c r="W12">
-        <v>0.1264984227129337</v>
+        <v>0.6167883211678832</v>
       </c>
       <c r="X12">
-        <v>0.02863615376492917</v>
+        <v>0.01821855055108027</v>
       </c>
       <c r="Y12">
-        <v>0.09786226894800457</v>
+        <v>0.5985697706168029</v>
       </c>
       <c r="Z12">
-        <v>1.329408798212127</v>
+        <v>-21.22182680901541</v>
       </c>
       <c r="AA12">
-        <v>0.005976887758483991</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>0.02892375206210324</v>
+        <v>0.01826577048101341</v>
       </c>
       <c r="AC12">
-        <v>-0.02294686430361925</v>
+        <v>-0.01826577048101341</v>
       </c>
       <c r="AD12">
-        <v>4.73</v>
+        <v>18.4</v>
       </c>
       <c r="AE12">
-        <v>0.7433413090541168</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>5.473341309054117</v>
+        <v>18.4</v>
       </c>
       <c r="AG12">
-        <v>3.133341309054117</v>
+        <v>-25.7</v>
       </c>
       <c r="AH12">
-        <v>0.118538991415396</v>
+        <v>0.02844334518472716</v>
       </c>
       <c r="AI12">
-        <v>0.07459577567825329</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AJ12">
-        <v>0.07148305868270419</v>
+        <v>-0.04263437292634373</v>
       </c>
       <c r="AK12">
-        <v>0.04411085345713186</v>
+        <v>-2.315315315315317</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-0.08500000000000001</v>
-      </c>
-      <c r="AN12">
-        <v>12.74932614555256</v>
-      </c>
-      <c r="AP12">
-        <v>8.445663905806246</v>
+        <v>-0.18</v>
       </c>
       <c r="AQ12">
         <v>-0</v>
@@ -1981,7 +1993,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mortgage Advice Bureau (Holdings) plc (AIM:MAB1)</t>
+          <t>Urban Exposure Plc (AIM:UEX)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1989,15 +2001,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D13">
-        <v>0.213</v>
-      </c>
-      <c r="E13">
-        <v>0.219</v>
-      </c>
-      <c r="F13">
-        <v>0.192</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -2011,28 +2014,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.9</v>
+        <v>-29.2</v>
       </c>
       <c r="L13">
-        <v>0.1052959501557632</v>
+        <v>-6.389496717724288</v>
       </c>
       <c r="M13">
-        <v>15.2</v>
+        <v>3.28</v>
       </c>
       <c r="N13">
-        <v>0.02872802872802873</v>
+        <v>0.04823529411764706</v>
       </c>
       <c r="O13">
-        <v>0.8994082840236687</v>
+        <v>-0.1123287671232877</v>
       </c>
       <c r="P13">
-        <v>15.2</v>
+        <v>3.28</v>
       </c>
       <c r="Q13">
-        <v>0.02872802872802873</v>
+        <v>0.04823529411764706</v>
       </c>
       <c r="R13">
-        <v>0.8994082840236687</v>
+        <v>-0.1123287671232877</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2041,64 +2044,61 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>30.6</v>
+        <v>23.1</v>
       </c>
       <c r="V13">
-        <v>0.05783405783405783</v>
+        <v>0.3397058823529412</v>
       </c>
       <c r="W13">
-        <v>0.6706349206349206</v>
+        <v>-0.1555673947789025</v>
       </c>
       <c r="X13">
-        <v>0.02770925042784321</v>
+        <v>0.01821016848619414</v>
       </c>
       <c r="Y13">
-        <v>0.6429256702070774</v>
+        <v>-0.1737775632650966</v>
       </c>
       <c r="Z13">
-        <v>-15.53727008712488</v>
+        <v>0.0382043136599231</v>
       </c>
       <c r="AA13">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.02770925042784321</v>
+        <v>0.01849431402758525</v>
       </c>
       <c r="AC13">
-        <v>-0.02770925042784321</v>
+        <v>-0.01849431402758525</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG13">
-        <v>-30.6</v>
+        <v>-21.19</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>0.02732084108139036</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>0.01251556254504947</v>
       </c>
       <c r="AJ13">
-        <v>-0.06138415245737212</v>
+        <v>-0.4526810510574664</v>
       </c>
       <c r="AK13">
-        <v>9.562499999999991</v>
+        <v>-0.1636167091344298</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>-0.163</v>
-      </c>
-      <c r="AQ13">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Close Brothers Group plc (LSE:CBG)</t>
+          <t>Morses Club PLC (AIM:MCL)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2117,15 +2117,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D14">
-        <v>0.0707</v>
-      </c>
-      <c r="E14">
-        <v>0.0612</v>
-      </c>
-      <c r="F14">
-        <v>0.05</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -2133,91 +2124,91 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.006923332864724931</v>
+        <v>0.001000354101959415</v>
       </c>
       <c r="J14">
-        <v>0.005239047558839762</v>
+        <v>0.000858032861735367</v>
       </c>
       <c r="K14">
-        <v>246.4</v>
+        <v>6.26</v>
       </c>
       <c r="L14">
-        <v>0.245393885071208</v>
+        <v>0.04099541584806811</v>
       </c>
       <c r="M14">
-        <v>130.1</v>
+        <v>4.55</v>
       </c>
       <c r="N14">
-        <v>0.04120478875023753</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="O14">
-        <v>0.5280032467532467</v>
+        <v>0.7268370607028753</v>
       </c>
       <c r="P14">
-        <v>116.7</v>
+        <v>4.55</v>
       </c>
       <c r="Q14">
-        <v>0.03696079052384874</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="R14">
-        <v>0.4736201298701299</v>
+        <v>0.7268370607028753</v>
       </c>
       <c r="S14">
-        <v>13.39999999999999</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.1029976940814757</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1452.3</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="V14">
-        <v>0.4599670615063026</v>
+        <v>0.09852941176470588</v>
       </c>
       <c r="W14">
-        <v>0.1439841056506749</v>
+        <v>0.07304550758459742</v>
       </c>
       <c r="X14">
-        <v>0.03487535914617522</v>
+        <v>0.01972394185972245</v>
       </c>
       <c r="Y14">
-        <v>0.1091087465044997</v>
+        <v>0.05332156572487497</v>
       </c>
       <c r="Z14">
-        <v>0.2891375666135328</v>
+        <v>1.648205227435109</v>
       </c>
       <c r="AA14">
-        <v>0.001514805462535498</v>
+        <v>0.001414214248023338</v>
       </c>
       <c r="AB14">
-        <v>0.03045445285097669</v>
+        <v>0.02079790057592456</v>
       </c>
       <c r="AC14">
-        <v>-0.02893964738844119</v>
+        <v>-0.01938368632790122</v>
       </c>
       <c r="AD14">
-        <v>3221.5</v>
+        <v>21.2</v>
       </c>
       <c r="AE14">
-        <v>61.24140735264848</v>
+        <v>0.2462296431539867</v>
       </c>
       <c r="AF14">
-        <v>3282.741407352648</v>
+        <v>21.44622964315399</v>
       </c>
       <c r="AG14">
-        <v>1830.441407352648</v>
+        <v>12.73622964315399</v>
       </c>
       <c r="AH14">
-        <v>0.5097312620503602</v>
+        <v>0.1952386505465333</v>
       </c>
       <c r="AI14">
-        <v>0.6563459421782988</v>
+        <v>0.182916156096677</v>
       </c>
       <c r="AJ14">
-        <v>0.3669806751783183</v>
+        <v>0.1259314262365931</v>
       </c>
       <c r="AK14">
-        <v>0.5157275026603391</v>
+        <v>0.1173454217548208</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2226,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>167.7864583333333</v>
+        <v>104.9504950495049</v>
       </c>
       <c r="AP14">
-        <v>95.33548996628377</v>
+        <v>63.05064179779201</v>
       </c>
     </row>
     <row r="15">
@@ -2240,7 +2231,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Orchard Funding Group plc (AIM:ORCH)</t>
+          <t>Time Finance plc (AIM:TIME)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2249,10 +2240,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.132</v>
+        <v>0.394</v>
       </c>
       <c r="E15">
-        <v>0.168</v>
+        <v>0.0412</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2267,28 +2258,28 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="L15">
-        <v>0.4140786749482401</v>
+        <v>0.05348189415041783</v>
       </c>
       <c r="M15">
-        <v>0.783</v>
+        <v>0.615</v>
       </c>
       <c r="N15">
-        <v>0.03495535714285715</v>
+        <v>0.01952380952380952</v>
       </c>
       <c r="O15">
-        <v>0.3915</v>
+        <v>0.3203125</v>
       </c>
       <c r="P15">
-        <v>0.783</v>
+        <v>0.615</v>
       </c>
       <c r="Q15">
-        <v>0.03495535714285715</v>
+        <v>0.01952380952380952</v>
       </c>
       <c r="R15">
-        <v>0.3915</v>
+        <v>0.3203125</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2297,61 +2288,61 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="V15">
-        <v>0.1165178571428571</v>
+        <v>0.05111111111111111</v>
       </c>
       <c r="W15">
-        <v>0.1086956521739131</v>
+        <v>0.02827687776141384</v>
       </c>
       <c r="X15">
-        <v>0.03380172178327846</v>
+        <v>0.01879827510934456</v>
       </c>
       <c r="Y15">
-        <v>0.07489393039063461</v>
+        <v>0.009478602652069283</v>
       </c>
       <c r="Z15">
-        <v>0.127743983073261</v>
+        <v>1.020176186416595</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.0302361375550474</v>
+        <v>0.01944256867021212</v>
       </c>
       <c r="AC15">
-        <v>-0.0302361375550474</v>
+        <v>-0.01944256867021212</v>
       </c>
       <c r="AD15">
-        <v>19.8</v>
+        <v>3.51</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>19.8</v>
+        <v>3.51</v>
       </c>
       <c r="AG15">
-        <v>17.19</v>
+        <v>1.9</v>
       </c>
       <c r="AH15">
-        <v>0.4691943127962085</v>
+        <v>0.1002570694087404</v>
       </c>
       <c r="AI15">
-        <v>0.5196850393700787</v>
+        <v>0.04894714823595035</v>
       </c>
       <c r="AJ15">
-        <v>0.4342005556958828</v>
+        <v>0.05688622754491017</v>
       </c>
       <c r="AK15">
-        <v>0.4843617920540997</v>
+        <v>0.02710413694721825</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>-0.006</v>
+        <v>-0.011</v>
       </c>
       <c r="AQ15">
         <v>-0</v>
@@ -2374,10 +2365,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.128</v>
+        <v>0.176</v>
       </c>
       <c r="E16">
-        <v>0.129</v>
+        <v>-0.223</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2392,28 +2383,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>34.8</v>
+        <v>26.2</v>
       </c>
       <c r="L16">
-        <v>0.3246268656716417</v>
+        <v>0.2373188405797101</v>
       </c>
       <c r="M16">
-        <v>17.4</v>
+        <v>19.1</v>
       </c>
       <c r="N16">
-        <v>0.05161673094037377</v>
+        <v>0.05101495726495727</v>
       </c>
       <c r="O16">
-        <v>0.5</v>
+        <v>0.7290076335877863</v>
       </c>
       <c r="P16">
-        <v>17.4</v>
+        <v>19.1</v>
       </c>
       <c r="Q16">
-        <v>0.05161673094037377</v>
+        <v>0.05101495726495727</v>
       </c>
       <c r="R16">
-        <v>0.5</v>
+        <v>0.7290076335877863</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2422,55 +2413,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0.002</v>
+        <v>0.055</v>
       </c>
       <c r="V16">
-        <v>5.932957579353308e-06</v>
+        <v>0.0001469017094017094</v>
       </c>
       <c r="W16">
-        <v>0.1715130606209956</v>
+        <v>0.1268765133171913</v>
       </c>
       <c r="X16">
-        <v>0.03085391195201958</v>
+        <v>0.02071287520901175</v>
       </c>
       <c r="Y16">
-        <v>0.140659148668976</v>
+        <v>0.1061636381081795</v>
       </c>
       <c r="Z16">
-        <v>0.2953176179548704</v>
+        <v>0.3064130247739372</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.03091921455628602</v>
+        <v>0.02048197181440756</v>
       </c>
       <c r="AC16">
-        <v>-0.03091921455628602</v>
+        <v>-0.02048197181440756</v>
       </c>
       <c r="AD16">
-        <v>153.8</v>
+        <v>143.3</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>153.8</v>
+        <v>143.3</v>
       </c>
       <c r="AG16">
-        <v>153.798</v>
+        <v>143.245</v>
       </c>
       <c r="AH16">
-        <v>0.3133020981870034</v>
+        <v>0.276801236237203</v>
       </c>
       <c r="AI16">
-        <v>0.4268665001387733</v>
+        <v>0.3851115291588283</v>
       </c>
       <c r="AJ16">
-        <v>0.3132993004656772</v>
+        <v>0.2767243960629389</v>
       </c>
       <c r="AK16">
-        <v>0.4268633186973006</v>
+        <v>0.3850206292249593</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2487,7 +2478,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PCF Group plc (AIM:PCF)</t>
+          <t>Orchard Funding Group plc (AIM:ORCH)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2495,6 +2486,12 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D17">
+        <v>0.135</v>
+      </c>
+      <c r="E17">
+        <v>0.0424</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
@@ -2508,28 +2505,28 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.86</v>
+        <v>1.67</v>
       </c>
       <c r="L17">
-        <v>0.2729166666666667</v>
+        <v>0.2642405063291139</v>
       </c>
       <c r="M17">
-        <v>1.245</v>
+        <v>0.842</v>
       </c>
       <c r="N17">
-        <v>0.01078856152512998</v>
+        <v>0.05011904761904762</v>
       </c>
       <c r="O17">
-        <v>0.1583969465648855</v>
+        <v>0.5041916167664671</v>
       </c>
       <c r="P17">
-        <v>1.245</v>
+        <v>0.842</v>
       </c>
       <c r="Q17">
-        <v>0.01078856152512998</v>
+        <v>0.05011904761904762</v>
       </c>
       <c r="R17">
-        <v>0.1583969465648855</v>
+        <v>0.5041916167664671</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2538,61 +2535,64 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>9.07</v>
+        <v>3.02</v>
       </c>
       <c r="V17">
-        <v>0.07859618717504332</v>
+        <v>0.1797619047619048</v>
       </c>
       <c r="W17">
-        <v>0.1416216216216216</v>
+        <v>0.09125683060109289</v>
       </c>
       <c r="X17">
-        <v>0.0309763159278991</v>
+        <v>0.02414455519886622</v>
       </c>
       <c r="Y17">
-        <v>0.1106453056937225</v>
+        <v>0.06711227540222667</v>
       </c>
       <c r="Z17">
-        <v>0.316546130003737</v>
+        <v>0.1780783319244858</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.03100398086900098</v>
+        <v>0.02216106390915332</v>
       </c>
       <c r="AC17">
-        <v>-0.03100398086900098</v>
+        <v>-0.02216106390915332</v>
       </c>
       <c r="AD17">
-        <v>54.7</v>
+        <v>14.6</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>54.7</v>
+        <v>14.6</v>
       </c>
       <c r="AG17">
-        <v>45.63</v>
+        <v>11.58</v>
       </c>
       <c r="AH17">
-        <v>0.321575543797766</v>
+        <v>0.464968152866242</v>
       </c>
       <c r="AI17">
-        <v>0.4307086614173228</v>
+        <v>0.4159544159544159</v>
       </c>
       <c r="AJ17">
-        <v>0.2833633484443893</v>
+        <v>0.4080338266384778</v>
       </c>
       <c r="AK17">
-        <v>0.3869244467056728</v>
+        <v>0.3609725685785536</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>-0.008</v>
+      </c>
+      <c r="AQ17">
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paragon Banking Group PLC (LSE:PAG)</t>
+          <t>Distribution Finance Capital Holdings plc (AIM:DFCH)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2611,15 +2611,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D18">
-        <v>0.114</v>
-      </c>
-      <c r="E18">
-        <v>0.0556</v>
-      </c>
-      <c r="F18">
-        <v>0.02</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2633,85 +2624,82 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>156.7</v>
+        <v>-16.7</v>
       </c>
       <c r="L18">
-        <v>0.4026207605344296</v>
+        <v>-3.804100227790433</v>
       </c>
       <c r="M18">
-        <v>108.6</v>
+        <v>-0</v>
       </c>
       <c r="N18">
-        <v>0.05992054734054292</v>
+        <v>-0</v>
       </c>
       <c r="O18">
-        <v>0.693044033184429</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>66.40000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q18">
-        <v>0.03663650408298389</v>
+        <v>-0</v>
       </c>
       <c r="R18">
-        <v>0.423739629865986</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>42.2</v>
-      </c>
-      <c r="T18">
-        <v>0.3885819521178637</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1507.2</v>
+        <v>32.9</v>
       </c>
       <c r="V18">
-        <v>0.8316045023173693</v>
+        <v>0.3631346578366446</v>
       </c>
       <c r="W18">
-        <v>0.1096034133034902</v>
+        <v>-0.185761957730812</v>
       </c>
       <c r="X18">
-        <v>0.05918334516225172</v>
+        <v>0.03119067111307235</v>
       </c>
       <c r="Y18">
-        <v>0.05042006814123851</v>
+        <v>-0.2169526288438844</v>
       </c>
       <c r="Z18">
-        <v>0.03931194004222094</v>
+        <v>0.01944198405668733</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.0321273263800554</v>
+        <v>0.02382351506351064</v>
       </c>
       <c r="AC18">
-        <v>-0.0321273263800554</v>
+        <v>-0.02382351506351064</v>
       </c>
       <c r="AD18">
-        <v>8276.200000000001</v>
+        <v>169.2</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>8276.200000000001</v>
+        <v>169.2</v>
       </c>
       <c r="AG18">
-        <v>6769.000000000001</v>
+        <v>136.3</v>
       </c>
       <c r="AH18">
-        <v>0.8203516840790596</v>
+        <v>0.651270207852194</v>
       </c>
       <c r="AI18">
-        <v>0.8585715026713004</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="AJ18">
-        <v>0.7887990304612301</v>
+        <v>0.6007051564565888</v>
       </c>
       <c r="AK18">
-        <v>0.8323598489972086</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2728,7 +2716,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OneSavings Bank Plc (LSE:OSB)</t>
+          <t>PCF Group plc (AIM:PCF)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2736,15 +2724,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D19">
-        <v>0.27</v>
-      </c>
-      <c r="E19">
-        <v>0.303</v>
-      </c>
-      <c r="F19">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -2752,103 +2731,94 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.0002289214957723647</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>-0.0001708295893183022</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>173.6</v>
+        <v>1.88</v>
       </c>
       <c r="L19">
-        <v>0.4824902723735408</v>
+        <v>0.05179063360881543</v>
       </c>
       <c r="M19">
-        <v>53.8</v>
+        <v>-0</v>
       </c>
       <c r="N19">
-        <v>0.02106499608457322</v>
+        <v>-0</v>
       </c>
       <c r="O19">
-        <v>0.3099078341013825</v>
+        <v>-0</v>
       </c>
       <c r="P19">
-        <v>53.8</v>
+        <v>-0</v>
       </c>
       <c r="Q19">
-        <v>0.02106499608457322</v>
+        <v>-0</v>
       </c>
       <c r="R19">
-        <v>0.3099078341013825</v>
+        <v>-0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
-        <v>1799.8</v>
+        <v>32</v>
       </c>
       <c r="V19">
-        <v>0.704698512137823</v>
+        <v>0.3131115459882583</v>
       </c>
       <c r="W19">
-        <v>0.2117847993168232</v>
+        <v>0.02600276625172891</v>
       </c>
       <c r="X19">
-        <v>0.03352947171173447</v>
+        <v>0.0242469761213427</v>
       </c>
       <c r="Y19">
-        <v>0.1782553276050887</v>
+        <v>0.001755790130386209</v>
       </c>
       <c r="Z19">
-        <v>0.3746465575586838</v>
+        <v>0.3173909241934073</v>
       </c>
       <c r="AA19">
-        <v>-6.400071756726563e-05</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0.0323999551094856</v>
+        <v>0.02470561298721985</v>
       </c>
       <c r="AC19">
-        <v>-0.03246395582705286</v>
+        <v>-0.02470561298721985</v>
       </c>
       <c r="AD19">
-        <v>2151.8</v>
+        <v>90.3</v>
       </c>
       <c r="AE19">
-        <v>4.871829770894484</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>2156.671829770895</v>
+        <v>90.3</v>
       </c>
       <c r="AG19">
-        <v>356.8718297708949</v>
+        <v>58.3</v>
       </c>
       <c r="AH19">
-        <v>0.4578268042662155</v>
+        <v>0.4690909090909091</v>
       </c>
       <c r="AI19">
-        <v>0.7022766568105543</v>
+        <v>0.5403949730700179</v>
       </c>
       <c r="AJ19">
-        <v>0.1225996370300451</v>
+        <v>0.3632398753894081</v>
       </c>
       <c r="AK19">
-        <v>0.2807423995819782</v>
+        <v>0.4315321983715766</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
         <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>2412.331838565023</v>
-      </c>
-      <c r="AP19">
-        <v>400.0805266489853</v>
       </c>
     </row>
     <row r="20">
@@ -2859,7 +2829,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nationwide Building Society (LSE:NBS)</t>
+          <t>OSB Group Plc (LSE:OSB)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2868,10 +2838,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.0189</v>
+        <v>0.24</v>
       </c>
       <c r="E20">
-        <v>-0.105</v>
+        <v>0.194</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2880,103 +2850,97 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-0.002925048617011113</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>-0.002130623801038878</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>560.9</v>
+        <v>204.9</v>
       </c>
       <c r="L20">
-        <v>0.1526715479463241</v>
+        <v>0.4340182164795594</v>
       </c>
       <c r="M20">
-        <v>1435.4</v>
+        <v>21.5</v>
       </c>
       <c r="N20">
-        <v>0.6375588522696989</v>
+        <v>0.00831078469269424</v>
       </c>
       <c r="O20">
-        <v>2.559101444107684</v>
+        <v>0.104929233772572</v>
       </c>
       <c r="P20">
-        <v>205.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q20">
-        <v>0.09123212223505374</v>
+        <v>0.00831078469269424</v>
       </c>
       <c r="R20">
-        <v>0.3661971830985916</v>
+        <v>0.104929233772572</v>
       </c>
       <c r="S20">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.8569039988853281</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>22531.5</v>
+        <v>2868.2</v>
       </c>
       <c r="V20">
-        <v>10.00777294128098</v>
+        <v>1.108697332817936</v>
       </c>
       <c r="W20">
-        <v>0.03404490358293931</v>
+        <v>0.224105873345729</v>
       </c>
       <c r="X20">
-        <v>0.2294043098662819</v>
+        <v>0.03169216504395751</v>
       </c>
       <c r="Y20">
-        <v>-0.1953594062833426</v>
+        <v>0.1924137083017715</v>
       </c>
       <c r="Z20">
-        <v>0.07133144884493868</v>
+        <v>0.372818447445313</v>
       </c>
       <c r="AA20">
-        <v>-0.0001519804826716135</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.03429850461905307</v>
+        <v>0.02742554761961995</v>
       </c>
       <c r="AC20">
-        <v>-0.03445048510172468</v>
+        <v>-0.02742554761961995</v>
       </c>
       <c r="AD20">
-        <v>65626.5</v>
+        <v>5015.2</v>
       </c>
       <c r="AE20">
-        <v>256.2316805701856</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>65882.73168057018</v>
+        <v>5015.2</v>
       </c>
       <c r="AG20">
-        <v>43351.23168057018</v>
+        <v>2147</v>
       </c>
       <c r="AH20">
-        <v>0.9669563558752738</v>
+        <v>0.659703769961327</v>
       </c>
       <c r="AI20">
-        <v>0.8069213335069536</v>
+        <v>0.723527035605055</v>
       </c>
       <c r="AJ20">
-        <v>0.9506300422359342</v>
+        <v>0.4535276721588509</v>
       </c>
       <c r="AK20">
-        <v>0.7333306569044808</v>
+        <v>0.5283752522518088</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>1620.407407407407</v>
-      </c>
-      <c r="AP20">
-        <v>1070.400782236301</v>
       </c>
     </row>
     <row r="21">
@@ -2987,7 +2951,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Non-Standard Finance plc (LSE:NSF)</t>
+          <t>Provident Financial plc (LSE:PFG)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2995,41 +2959,47 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D21">
+        <v>-0.147</v>
+      </c>
+      <c r="E21">
+        <v>-0.283</v>
+      </c>
       <c r="G21">
-        <v>0.01506785212915302</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.006838143148779028</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.006838143148779028</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>-29</v>
+        <v>45.4</v>
       </c>
       <c r="L21">
-        <v>-0.1357042583060365</v>
+        <v>0.07977508346512036</v>
       </c>
       <c r="M21">
-        <v>10.3</v>
+        <v>27.9</v>
       </c>
       <c r="N21">
-        <v>0.1169125993189557</v>
+        <v>0.02654362096850918</v>
       </c>
       <c r="O21">
-        <v>-0.3551724137931035</v>
+        <v>0.6145374449339207</v>
       </c>
       <c r="P21">
-        <v>10.3</v>
+        <v>27.9</v>
       </c>
       <c r="Q21">
-        <v>0.1169125993189557</v>
+        <v>0.02654362096850918</v>
       </c>
       <c r="R21">
-        <v>-0.3551724137931035</v>
+        <v>0.6145374449339207</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3038,67 +3008,61 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>22.1</v>
+        <v>1291</v>
       </c>
       <c r="V21">
-        <v>0.2508513053348468</v>
+        <v>1.228237084958615</v>
       </c>
       <c r="W21">
-        <v>-0.103202846975089</v>
+        <v>0.05268654984333294</v>
       </c>
       <c r="X21">
-        <v>0.05919827635143339</v>
+        <v>0.03853079686694064</v>
       </c>
       <c r="Y21">
-        <v>-0.1624011233265223</v>
+        <v>0.0141557529763923</v>
       </c>
       <c r="Z21">
-        <v>0.5331923542534892</v>
+        <v>0.191159181754056</v>
       </c>
       <c r="AA21">
-        <v>0.003646045644219858</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.03864020919169356</v>
+        <v>0.02862977595695729</v>
       </c>
       <c r="AC21">
-        <v>-0.0349941635474737</v>
+        <v>-0.02862977595695729</v>
       </c>
       <c r="AD21">
-        <v>390.7</v>
+        <v>3056.3</v>
       </c>
       <c r="AE21">
-        <v>11.79344404552961</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>402.4934440455296</v>
+        <v>3056.3</v>
       </c>
       <c r="AG21">
-        <v>380.3934440455296</v>
+        <v>1765.3</v>
       </c>
       <c r="AH21">
-        <v>0.8204215709172341</v>
+        <v>0.7440960218142865</v>
       </c>
       <c r="AI21">
-        <v>0.6356563666767663</v>
+        <v>0.7674710594380132</v>
       </c>
       <c r="AJ21">
-        <v>0.8119504101503752</v>
+        <v>0.6267930691663116</v>
       </c>
       <c r="AK21">
-        <v>0.6224799950843333</v>
+        <v>0.6559283617582581</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>102.2774869109948</v>
-      </c>
-      <c r="AP21">
-        <v>99.57943561401298</v>
       </c>
     </row>
     <row r="22">
@@ -3109,7 +3073,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Provident Financial plc (LSE:PFG)</t>
+          <t>Paragon Banking Group PLC (LSE:PAG)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3118,10 +3082,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.0818</v>
+        <v>0.05139999999999999</v>
       </c>
       <c r="E22">
-        <v>-0.177</v>
+        <v>-0.0314</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3130,103 +3094,97 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>-0.008595390145284267</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>-0.005405497245019241</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>74.8</v>
+        <v>118.1</v>
       </c>
       <c r="L22">
-        <v>0.09100863852050127</v>
+        <v>0.3441142191142191</v>
       </c>
       <c r="M22">
-        <v>31.9</v>
+        <v>53.12</v>
       </c>
       <c r="N22">
-        <v>0.02105610561056106</v>
+        <v>0.03133183909401911</v>
       </c>
       <c r="O22">
-        <v>0.4264705882352941</v>
+        <v>0.4497883149872989</v>
       </c>
       <c r="P22">
-        <v>31.9</v>
+        <v>46.4</v>
       </c>
       <c r="Q22">
-        <v>0.02105610561056106</v>
+        <v>0.02736817270260705</v>
       </c>
       <c r="R22">
-        <v>0.4264705882352941</v>
+        <v>0.392887383573243</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>6.719999999999999</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.1265060240963855</v>
       </c>
       <c r="U22">
-        <v>559.1</v>
+        <v>2489.3</v>
       </c>
       <c r="V22">
-        <v>0.3690429042904291</v>
+        <v>1.468267075616374</v>
       </c>
       <c r="W22">
-        <v>0.08362213527110117</v>
+        <v>0.0866280349152791</v>
       </c>
       <c r="X22">
-        <v>0.04084285121571914</v>
+        <v>0.05228562804041567</v>
       </c>
       <c r="Y22">
-        <v>0.04277928405538203</v>
+        <v>0.03434240687486342</v>
       </c>
       <c r="Z22">
-        <v>0.2745136116307932</v>
+        <v>0.04327814277247449</v>
       </c>
       <c r="AA22">
-        <v>-0.001483882571390534</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.03644718431114075</v>
+        <v>0.02984503657324068</v>
       </c>
       <c r="AC22">
-        <v>-0.03793106688253128</v>
+        <v>-0.02984503657324068</v>
       </c>
       <c r="AD22">
-        <v>2765</v>
+        <v>8234.4</v>
       </c>
       <c r="AE22">
-        <v>121.8227558020457</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>2886.822755802046</v>
+        <v>8234.4</v>
       </c>
       <c r="AG22">
-        <v>2327.722755802046</v>
+        <v>5745.099999999999</v>
       </c>
       <c r="AH22">
-        <v>0.6558243972901731</v>
+        <v>0.8292614151342425</v>
       </c>
       <c r="AI22">
-        <v>0.7701227773884414</v>
+        <v>0.8463507138231939</v>
       </c>
       <c r="AJ22">
-        <v>0.6057482945620957</v>
+        <v>0.7721389691552987</v>
       </c>
       <c r="AK22">
-        <v>0.7298257189541787</v>
+        <v>0.7935220994475137</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>159.8265895953757</v>
-      </c>
-      <c r="AP22">
-        <v>134.550448312257</v>
       </c>
     </row>
     <row r="23">
@@ -3237,7 +3195,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Arrow Global Group PLC (LSE:ARW)</t>
+          <t>Non-Standard Finance plc (LSE:NSF)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3245,119 +3203,104 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D23">
-        <v>0.303</v>
-      </c>
-      <c r="E23">
-        <v>0.149</v>
-      </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.02184724689165186</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-0.003160580405773955</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>-0.002315046019679921</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>48.6</v>
+        <v>-192.8</v>
       </c>
       <c r="L23">
-        <v>0.1272251308900524</v>
+        <v>-1.141503848431024</v>
       </c>
       <c r="M23">
-        <v>36.807</v>
+        <v>2.71</v>
       </c>
       <c r="N23">
-        <v>0.06190211907164479</v>
+        <v>0.2007407407407407</v>
       </c>
       <c r="O23">
-        <v>0.7573456790123455</v>
+        <v>-0.01405601659751037</v>
       </c>
       <c r="P23">
-        <v>36.8</v>
+        <v>2.71</v>
       </c>
       <c r="Q23">
-        <v>0.06189034645139589</v>
+        <v>0.2007407407407407</v>
       </c>
       <c r="R23">
-        <v>0.7572016460905349</v>
+        <v>-0.01405601659751037</v>
       </c>
       <c r="S23">
-        <v>0.006999999999997897</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>0.0001901812155295976</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>120.3</v>
+        <v>93.7</v>
       </c>
       <c r="V23">
-        <v>0.2023208879919273</v>
+        <v>6.940740740740741</v>
       </c>
       <c r="W23">
-        <v>0.1989357347523537</v>
+        <v>-0.8368055555555556</v>
       </c>
       <c r="X23">
-        <v>0.04603401616181862</v>
+        <v>0.2451327197344926</v>
       </c>
       <c r="Y23">
-        <v>0.152901718590535</v>
+        <v>-1.081938275290048</v>
       </c>
       <c r="Z23">
-        <v>0.2314398692348959</v>
+        <v>0.38729649163036</v>
       </c>
       <c r="AA23">
-        <v>-0.0005357939480674872</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.04368927327422688</v>
+        <v>0.03185138321944965</v>
       </c>
       <c r="AC23">
-        <v>-0.04422506722229436</v>
+        <v>-0.03185138321944965</v>
       </c>
       <c r="AD23">
-        <v>1552.4</v>
+        <v>434.5</v>
       </c>
       <c r="AE23">
-        <v>28.43670857502826</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1580.836708575028</v>
+        <v>434.5</v>
       </c>
       <c r="AG23">
-        <v>1460.536708575028</v>
+        <v>340.8</v>
       </c>
       <c r="AH23">
-        <v>0.7266755692518034</v>
+        <v>0.9698660714285714</v>
       </c>
       <c r="AI23">
-        <v>0.8614741608098971</v>
+        <v>0.9408834993503681</v>
       </c>
       <c r="AJ23">
-        <v>0.7106761815313598</v>
+        <v>0.9618966977138018</v>
       </c>
       <c r="AK23">
-        <v>0.8517556667861599</v>
+        <v>0.9258353708231458</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>-0.093</v>
-      </c>
-      <c r="AN23">
-        <v>346.5178571428571</v>
-      </c>
-      <c r="AP23">
-        <v>326.0126581640688</v>
-      </c>
-      <c r="AQ23">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3368,7 +3311,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TruFin plc (AIM:TRU)</t>
+          <t>Arrow Global Group PLC (LSE:ARW)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3376,116 +3319,110 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D24">
+        <v>-0.0137</v>
+      </c>
       <c r="G24">
-        <v>-4.025157232704403</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-4.025157232704403</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>-3.562553458079105</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-3.562553458079105</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-20.3</v>
+        <v>-123.4</v>
       </c>
       <c r="L24">
-        <v>-4.255765199161426</v>
+        <v>-0.8539792387543254</v>
       </c>
       <c r="M24">
-        <v>6.35</v>
+        <v>1.022</v>
       </c>
       <c r="N24">
-        <v>0.1257425742574257</v>
+        <v>0.0020617308856163</v>
       </c>
       <c r="O24">
-        <v>-0.312807881773399</v>
+        <v>-0.008282009724473257</v>
       </c>
       <c r="P24">
+        <v>0.297</v>
+      </c>
+      <c r="Q24">
+        <v>0.0005991527133346783</v>
+      </c>
+      <c r="R24">
+        <v>-0.002406807131280389</v>
+      </c>
+      <c r="S24">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="T24">
+        <v>0.7093933463796478</v>
+      </c>
+      <c r="U24">
+        <v>290.3</v>
+      </c>
+      <c r="V24">
+        <v>0.5856364736735929</v>
+      </c>
+      <c r="W24">
+        <v>-0.5055305202785744</v>
+      </c>
+      <c r="X24">
+        <v>0.04381292406772803</v>
+      </c>
+      <c r="Y24">
+        <v>-0.5493434443463024</v>
+      </c>
+      <c r="Z24">
+        <v>0.1080212304702101</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0.0403710973181035</v>
+      </c>
+      <c r="AC24">
+        <v>-0.0403710973181035</v>
+      </c>
+      <c r="AD24">
+        <v>1812.4</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1812.4</v>
+      </c>
+      <c r="AG24">
+        <v>1522.1</v>
+      </c>
+      <c r="AH24">
+        <v>0.7852346085524892</v>
+      </c>
+      <c r="AI24">
+        <v>0.9262533858026269</v>
+      </c>
+      <c r="AJ24">
+        <v>0.7543364059867183</v>
+      </c>
+      <c r="AK24">
+        <v>0.9134061449831974</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>-0.079</v>
+      </c>
+      <c r="AQ24">
         <v>-0</v>
-      </c>
-      <c r="Q24">
-        <v>-0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>6.35</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>22.5</v>
-      </c>
-      <c r="V24">
-        <v>0.4455445544554456</v>
-      </c>
-      <c r="W24">
-        <v>-0.09907271839921913</v>
-      </c>
-      <c r="X24">
-        <v>0.02789649420537114</v>
-      </c>
-      <c r="Y24">
-        <v>-0.1269692126045903</v>
-      </c>
-      <c r="Z24">
-        <v>0.03068078540727484</v>
-      </c>
-      <c r="AA24">
-        <v>-0.1093019381492699</v>
-      </c>
-      <c r="AB24">
-        <v>0.02806163061181783</v>
-      </c>
-      <c r="AC24">
-        <v>-0.1373635687610878</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>1.37189997518664</v>
-      </c>
-      <c r="AF24">
-        <v>1.37189997518664</v>
-      </c>
-      <c r="AG24">
-        <v>-21.12810002481336</v>
-      </c>
-      <c r="AH24">
-        <v>0.02644784509229274</v>
-      </c>
-      <c r="AI24">
-        <v>0.01735003175106646</v>
-      </c>
-      <c r="AJ24">
-        <v>-0.71933038185008</v>
-      </c>
-      <c r="AK24">
-        <v>-0.3734734034755858</v>
-      </c>
-      <c r="AL24">
-        <v>0.172</v>
-      </c>
-      <c r="AM24">
-        <v>0.172</v>
-      </c>
-      <c r="AN24">
-        <v>-0</v>
-      </c>
-      <c r="AO24">
-        <v>-100.5813953488372</v>
-      </c>
-      <c r="AP24">
-        <v>1.286807967891672</v>
-      </c>
-      <c r="AQ24">
-        <v>-100.5813953488372</v>
       </c>
     </row>
     <row r="25">
@@ -3496,7 +3433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Appreciate Group plc (AIM:APP)</t>
+          <t>Curtis Banks Group plc (AIM:CBP)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3505,46 +3442,46 @@
         </is>
       </c>
       <c r="D25">
-        <v>-0.161</v>
+        <v>0.997</v>
       </c>
       <c r="E25">
-        <v>0.038</v>
+        <v>0.254</v>
       </c>
       <c r="G25">
-        <v>0.1055944055944056</v>
+        <v>0.03582554517133956</v>
       </c>
       <c r="H25">
-        <v>0.1055944055944056</v>
+        <v>0.03582554517133956</v>
       </c>
       <c r="I25">
-        <v>0.105415266744985</v>
+        <v>0.02998442367601246</v>
       </c>
       <c r="J25">
-        <v>0.08284749132915725</v>
+        <v>0.02316038242560962</v>
       </c>
       <c r="K25">
-        <v>11.2</v>
+        <v>8.99</v>
       </c>
       <c r="L25">
-        <v>0.07832167832167831</v>
+        <v>0.01750389408099689</v>
       </c>
       <c r="M25">
-        <v>7.54</v>
+        <v>6.01</v>
       </c>
       <c r="N25">
-        <v>0.05479651162790698</v>
+        <v>0.02890812890812891</v>
       </c>
       <c r="O25">
-        <v>0.6732142857142858</v>
+        <v>0.6685205784204672</v>
       </c>
       <c r="P25">
-        <v>7.54</v>
+        <v>6.01</v>
       </c>
       <c r="Q25">
-        <v>0.05479651162790698</v>
+        <v>0.02890812890812891</v>
       </c>
       <c r="R25">
-        <v>0.6732142857142858</v>
+        <v>0.6685205784204672</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3553,73 +3490,73 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>9.44</v>
+        <v>545.8</v>
       </c>
       <c r="V25">
-        <v>0.0686046511627907</v>
+        <v>2.625300625300625</v>
       </c>
       <c r="W25">
-        <v>1.171548117154812</v>
+        <v>0.1372519083969466</v>
       </c>
       <c r="X25">
-        <v>0.0280537791101072</v>
+        <v>0.02159970157328364</v>
       </c>
       <c r="Y25">
-        <v>1.143494338044704</v>
+        <v>0.1156522068236629</v>
       </c>
       <c r="Z25">
-        <v>-3.754077401649726</v>
+        <v>-1.301571211353269</v>
       </c>
       <c r="AA25">
-        <v>-0.3110158949821609</v>
+        <v>-0.03014488700910569</v>
       </c>
       <c r="AB25">
-        <v>0.02796563897546179</v>
+        <v>0.02101962860085132</v>
       </c>
       <c r="AC25">
-        <v>-0.3389815339576227</v>
+        <v>-0.051164515609957</v>
       </c>
       <c r="AD25">
-        <v>6.58</v>
+        <v>105.7</v>
       </c>
       <c r="AE25">
-        <v>0.2980842773356913</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>6.878084277335692</v>
+        <v>105.7</v>
       </c>
       <c r="AG25">
-        <v>-2.561915722664308</v>
+        <v>-440.1</v>
       </c>
       <c r="AH25">
-        <v>0.04760641942159707</v>
+        <v>0.3370535714285714</v>
       </c>
       <c r="AI25">
-        <v>0.3624224751467537</v>
+        <v>0.6109826589595376</v>
       </c>
       <c r="AJ25">
-        <v>-0.01897180144678853</v>
+        <v>1.895348837209303</v>
       </c>
       <c r="AK25">
-        <v>-0.2685985621611573</v>
+        <v>1.180525751072961</v>
       </c>
       <c r="AL25">
-        <v>0.031</v>
+        <v>0.615</v>
       </c>
       <c r="AM25">
-        <v>-1.919</v>
+        <v>0.465</v>
       </c>
       <c r="AN25">
-        <v>0.4155614500442087</v>
+        <v>6.074712643678161</v>
       </c>
       <c r="AO25">
-        <v>483.8709677419355</v>
+        <v>25.04065040650407</v>
       </c>
       <c r="AP25">
-        <v>-0.1617983909728627</v>
+        <v>-25.29310344827586</v>
       </c>
       <c r="AQ25">
-        <v>-7.81657113079729</v>
+        <v>33.11827956989248</v>
       </c>
     </row>
     <row r="26">
@@ -3630,7 +3567,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Online Blockchain PLC (AIM:OBC)</t>
+          <t>Aquis Exchange PLC (AIM:AQX)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3638,26 +3575,23 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D26">
-        <v>-0.0851</v>
-      </c>
       <c r="G26">
-        <v>-11.296875</v>
+        <v>-0.0229126213592233</v>
       </c>
       <c r="H26">
-        <v>-11.296875</v>
+        <v>-0.07961165048543688</v>
       </c>
       <c r="I26">
-        <v>-11.78125</v>
+        <v>-0.03495145631067961</v>
       </c>
       <c r="J26">
-        <v>-11.78125</v>
+        <v>-0.03495145631067961</v>
       </c>
       <c r="K26">
-        <v>-0.846</v>
+        <v>-0.284</v>
       </c>
       <c r="L26">
-        <v>-13.21875</v>
+        <v>-0.02757281553398058</v>
       </c>
       <c r="M26">
         <v>-0</v>
@@ -3681,67 +3615,73 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>0.196</v>
+        <v>13.8</v>
       </c>
       <c r="V26">
-        <v>0.1264516129032258</v>
+        <v>0.07917383820998279</v>
       </c>
       <c r="W26">
-        <v>-0.3065217391304348</v>
+        <v>-0.01613636363636363</v>
       </c>
       <c r="X26">
-        <v>0.02770925042784321</v>
+        <v>0.01807633114323738</v>
       </c>
       <c r="Y26">
-        <v>-0.334230989558278</v>
+        <v>-0.03421269477960102</v>
       </c>
       <c r="Z26">
-        <v>0.03368421052631579</v>
+        <v>2.047713717693837</v>
       </c>
       <c r="AA26">
-        <v>-0.3968421052631579</v>
+        <v>-0.07157057654075545</v>
       </c>
       <c r="AB26">
-        <v>0.02770925042784321</v>
+        <v>0.01809262400338315</v>
       </c>
       <c r="AC26">
-        <v>-0.4245513556910012</v>
+        <v>-0.08966320054413859</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AE26">
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AG26">
-        <v>-0.196</v>
+        <v>-12.21</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>0.009039740747057819</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>0.08461947844598192</v>
       </c>
       <c r="AJ26">
-        <v>-0.1447562776957164</v>
+        <v>-0.07532852119193041</v>
       </c>
       <c r="AK26">
-        <v>-0.1199510403916769</v>
+        <v>-2.446893787575151</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="AN26">
-        <v>-0</v>
+        <v>16.73684210526316</v>
+      </c>
+      <c r="AO26">
+        <v>-6.428571428571428</v>
       </c>
       <c r="AP26">
-        <v>0.2710926694329184</v>
+        <v>-128.5263157894737</v>
+      </c>
+      <c r="AQ26">
+        <v>-89.99999999999991</v>
       </c>
     </row>
     <row r="27">
@@ -3752,7 +3692,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ADVFN plc (AIM:AFN)</t>
+          <t>Amigo Holdings PLC (LSE:AMGO)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3760,116 +3700,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D27">
-        <v>-0.0213</v>
-      </c>
       <c r="G27">
-        <v>-0.01990990990990991</v>
+        <v>-0.01876202694034637</v>
       </c>
       <c r="H27">
-        <v>-0.04513513513513514</v>
+        <v>-0.01876202694034637</v>
       </c>
       <c r="I27">
-        <v>-0.04312396812657766</v>
+        <v>-0.4483643361128929</v>
       </c>
       <c r="J27">
-        <v>-0.04312396812657766</v>
+        <v>-0.4483643361128929</v>
       </c>
       <c r="K27">
-        <v>-0.522</v>
+        <v>-170.8</v>
       </c>
       <c r="L27">
-        <v>-0.04702702702702703</v>
+        <v>-0.5477870429762669</v>
       </c>
       <c r="M27">
-        <v>-0</v>
+        <v>19</v>
       </c>
       <c r="N27">
-        <v>-0</v>
+        <v>0.3460837887067396</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>-0.1112412177985948</v>
       </c>
       <c r="P27">
-        <v>-0</v>
+        <v>19</v>
       </c>
       <c r="Q27">
-        <v>-0</v>
+        <v>0.3460837887067396</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>-0.1112412177985948</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
       <c r="U27">
-        <v>1.13</v>
+        <v>173.5</v>
       </c>
       <c r="V27">
-        <v>0.1746522411128284</v>
+        <v>3.160291438979963</v>
       </c>
       <c r="W27">
-        <v>-0.1898181818181818</v>
+        <v>-0.5651886168100596</v>
       </c>
       <c r="X27">
-        <v>0.02832007255159826</v>
+        <v>0.08467129573763292</v>
       </c>
       <c r="Y27">
-        <v>-0.2181382543697801</v>
+        <v>-0.6498599125476925</v>
       </c>
       <c r="Z27">
-        <v>16.24278768402499</v>
+        <v>0.3413245758073344</v>
       </c>
       <c r="AA27">
-        <v>-0.7004534583726619</v>
+        <v>-0.1530377668308703</v>
       </c>
       <c r="AB27">
-        <v>0.02879388331033017</v>
+        <v>0.06726373812037759</v>
       </c>
       <c r="AC27">
-        <v>-0.7292473416829921</v>
+        <v>-0.2203015049512479</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>518.6</v>
       </c>
       <c r="AE27">
-        <v>0.57338023102506</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.57338023102506</v>
+        <v>518.6</v>
       </c>
       <c r="AG27">
-        <v>-0.5566197689749399</v>
+        <v>345.1</v>
       </c>
       <c r="AH27">
-        <v>0.08140696827631198</v>
+        <v>0.9042720139494334</v>
       </c>
       <c r="AI27">
-        <v>0.2097696560899006</v>
+        <v>0.8010503552672227</v>
       </c>
       <c r="AJ27">
-        <v>-0.09412886491800176</v>
+        <v>0.86275</v>
       </c>
       <c r="AK27">
-        <v>-0.3471539427794281</v>
+        <v>0.7282127031019202</v>
       </c>
       <c r="AL27">
-        <v>0.008999999999999999</v>
+        <v>37.6</v>
       </c>
       <c r="AM27">
-        <v>0.008999999999999999</v>
+        <v>37.6</v>
       </c>
       <c r="AN27">
-        <v>-0</v>
+        <v>-3.736311239193083</v>
       </c>
       <c r="AO27">
-        <v>-67.11111111111111</v>
+        <v>-3.718085106382979</v>
       </c>
       <c r="AP27">
-        <v>2.132642793007433</v>
+        <v>-2.486311239193084</v>
       </c>
       <c r="AQ27">
-        <v>-67.11111111111111</v>
+        <v>-3.718085106382979</v>
       </c>
     </row>
     <row r="28">
@@ -3880,7 +3820,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aquis Exchange Plc (AIM:AQX)</t>
+          <t>TruFin plc (AIM:TRU)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3889,31 +3829,31 @@
         </is>
       </c>
       <c r="G28">
-        <v>-0.3396396396396397</v>
+        <v>-1.298076923076923</v>
       </c>
       <c r="H28">
-        <v>-0.4131274131274131</v>
+        <v>-1.298076923076923</v>
       </c>
       <c r="I28">
-        <v>-0.1958495329627458</v>
+        <v>-1.326923076923077</v>
       </c>
       <c r="J28">
-        <v>-0.1958495329627458</v>
+        <v>-1.326923076923077</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>-17.1</v>
       </c>
       <c r="L28">
-        <v>-0.1287001287001287</v>
+        <v>-1.644230769230769</v>
       </c>
       <c r="M28">
-        <v>-0</v>
+        <v>6.19</v>
       </c>
       <c r="N28">
-        <v>-0</v>
+        <v>0.1181297709923664</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>-0.3619883040935672</v>
       </c>
       <c r="P28">
         <v>-0</v>
@@ -3925,73 +3865,79 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>6.19</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>14.2</v>
+        <v>12.8</v>
       </c>
       <c r="V28">
-        <v>0.09820193637621023</v>
+        <v>0.2442748091603054</v>
       </c>
       <c r="W28">
-        <v>-0.05494505494505494</v>
+        <v>-0.2200772200772201</v>
       </c>
       <c r="X28">
-        <v>0.02782859419676104</v>
+        <v>0.01938558842676309</v>
       </c>
       <c r="Y28">
-        <v>-0.08277364914181598</v>
+        <v>-0.2394628085039832</v>
       </c>
       <c r="Z28">
-        <v>4.380538926067905</v>
+        <v>0.2011994583091507</v>
       </c>
       <c r="AA28">
-        <v>-0.8579265027955271</v>
+        <v>-0.2669762042948346</v>
       </c>
       <c r="AB28">
-        <v>0.02793602227959649</v>
+        <v>0.0203370075932828</v>
       </c>
       <c r="AC28">
-        <v>-0.8858625250751235</v>
+        <v>-0.2873132118881174</v>
       </c>
       <c r="AD28">
-        <v>1.63</v>
+        <v>10.2</v>
       </c>
       <c r="AE28">
-        <v>0.8737543556026741</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>2.503754355602674</v>
+        <v>10.2</v>
       </c>
       <c r="AG28">
-        <v>-11.69624564439733</v>
+        <v>-2.600000000000001</v>
       </c>
       <c r="AH28">
-        <v>0.01702032940335567</v>
+        <v>0.1629392971246006</v>
       </c>
       <c r="AI28">
-        <v>0.1245416309469036</v>
+        <v>0.1540785498489426</v>
       </c>
       <c r="AJ28">
-        <v>-0.08800538179758546</v>
+        <v>-0.05220883534136549</v>
       </c>
       <c r="AK28">
-        <v>-1.981153845484368</v>
+        <v>-0.04868913857677905</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AM28">
-        <v>-0.057</v>
+        <v>2.43</v>
       </c>
       <c r="AN28">
-        <v>-1.685625646328852</v>
+        <v>-0.7611940298507462</v>
+      </c>
+      <c r="AO28">
+        <v>-5.679012345679013</v>
       </c>
       <c r="AP28">
-        <v>12.09539363433022</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="AQ28">
-        <v>28.7719298245614</v>
+        <v>-5.679012345679013</v>
       </c>
     </row>
     <row r="29">
@@ -4011,22 +3957,22 @@
         </is>
       </c>
       <c r="G29">
-        <v>-0.06669960474308301</v>
+        <v>-0.09397163120567377</v>
       </c>
       <c r="H29">
-        <v>-0.2722332015810277</v>
+        <v>-0.4884751773049645</v>
       </c>
       <c r="I29">
-        <v>-0.3022872786434733</v>
+        <v>-1.191431731589362</v>
       </c>
       <c r="J29">
-        <v>-0.3022872786434733</v>
+        <v>-1.191431731589362</v>
       </c>
       <c r="K29">
-        <v>-67.59999999999999</v>
+        <v>-209.1</v>
       </c>
       <c r="L29">
-        <v>-0.33399209486166</v>
+        <v>-1.853723404255319</v>
       </c>
       <c r="M29">
         <v>-0</v>
@@ -4050,70 +3996,73 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>343.1</v>
+        <v>162.4</v>
       </c>
       <c r="V29">
-        <v>0.8509424603174603</v>
+        <v>0.3744523864422412</v>
       </c>
       <c r="W29">
-        <v>-0.4</v>
+        <v>-0.4363522537562604</v>
       </c>
       <c r="X29">
-        <v>0.03191303388451182</v>
+        <v>0.033196403755818</v>
       </c>
       <c r="Y29">
-        <v>-0.4319130338845118</v>
+        <v>-0.4695486575120784</v>
       </c>
       <c r="Z29">
-        <v>3.543744568526472</v>
+        <v>0.3767189095011848</v>
       </c>
       <c r="AA29">
-        <v>-1.071228901827457</v>
+        <v>-0.4488348626694528</v>
       </c>
       <c r="AB29">
-        <v>0.04463253825042561</v>
+        <v>0.03006551314233993</v>
       </c>
       <c r="AC29">
-        <v>-1.115861440077882</v>
+        <v>-0.4789003758117927</v>
       </c>
       <c r="AD29">
-        <v>217</v>
+        <v>933.1</v>
       </c>
       <c r="AE29">
-        <v>28.91472598719499</v>
+        <v>0.1274966164002877</v>
       </c>
       <c r="AF29">
-        <v>245.914725987195</v>
+        <v>933.2274966164003</v>
       </c>
       <c r="AG29">
-        <v>-97.18527401280502</v>
+        <v>770.8274966164004</v>
       </c>
       <c r="AH29">
-        <v>0.3788463212157139</v>
+        <v>0.6827190900222934</v>
       </c>
       <c r="AI29">
-        <v>0.3391390592052845</v>
+        <v>0.7765070272096364</v>
       </c>
       <c r="AJ29">
-        <v>-0.3175836512419069</v>
+        <v>0.6399418018946909</v>
       </c>
       <c r="AK29">
-        <v>-0.2544019049570949</v>
+        <v>0.7415885178385593</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AM29">
-        <v>-3.3</v>
+        <v>0.5</v>
       </c>
       <c r="AN29">
-        <v>-4.221789883268483</v>
+        <v>-7.168428492409809</v>
+      </c>
+      <c r="AO29">
+        <v>-72.31182795698925</v>
       </c>
       <c r="AP29">
-        <v>1.890764085852238</v>
+        <v>-5.921789507531807</v>
       </c>
       <c r="AQ29">
-        <v>19.18181818181818</v>
+        <v>-269</v>
       </c>
     </row>
     <row r="30">
@@ -4133,121 +4082,124 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.107</v>
+        <v>0.11</v>
       </c>
       <c r="E30">
-        <v>0.235</v>
+        <v>0.228</v>
       </c>
       <c r="F30">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G30">
-        <v>0.5959016393442623</v>
+        <v>0.4963976945244957</v>
       </c>
       <c r="H30">
-        <v>0.5959016393442623</v>
+        <v>0.4963976945244957</v>
       </c>
       <c r="I30">
-        <v>0.589344262295082</v>
+        <v>0.4877521613832853</v>
       </c>
       <c r="J30">
-        <v>0.4219363269185079</v>
+        <v>0.4245464079259247</v>
       </c>
       <c r="K30">
-        <v>49.4</v>
+        <v>58.8</v>
       </c>
       <c r="L30">
-        <v>0.4049180327868852</v>
+        <v>0.4236311239193083</v>
       </c>
       <c r="M30">
-        <v>37.038</v>
+        <v>34.87</v>
       </c>
       <c r="N30">
-        <v>0.01896758334613612</v>
+        <v>0.01386425987038289</v>
       </c>
       <c r="O30">
-        <v>0.749757085020243</v>
+        <v>0.5930272108843537</v>
       </c>
       <c r="P30">
-        <v>36.7</v>
+        <v>33.8</v>
       </c>
       <c r="Q30">
-        <v>0.01879448968095458</v>
+        <v>0.01343882947000119</v>
       </c>
       <c r="R30">
-        <v>0.7429149797570851</v>
+        <v>0.5748299319727891</v>
       </c>
       <c r="S30">
-        <v>0.338000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="T30">
-        <v>0.009125762730169041</v>
+        <v>0.03068540292515057</v>
       </c>
       <c r="U30">
-        <v>162.8</v>
+        <v>1991.3</v>
       </c>
       <c r="V30">
-        <v>0.08337174169099196</v>
+        <v>0.7917379030654845</v>
       </c>
       <c r="W30">
-        <v>0.3608473338203068</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="X30">
-        <v>0.02770925042784321</v>
+        <v>0.01803403969529346</v>
       </c>
       <c r="Y30">
-        <v>0.3331380833924635</v>
+        <v>0.3957590637529824</v>
       </c>
       <c r="Z30">
-        <v>-3.765432098765432</v>
+        <v>-3.792349726775955</v>
       </c>
       <c r="AA30">
-        <v>-1.588772589014135</v>
+        <v>-1.610028454101593</v>
       </c>
       <c r="AB30">
-        <v>0.02770925042784321</v>
+        <v>0.01803979378702358</v>
       </c>
       <c r="AC30">
-        <v>-1.616481839441978</v>
+        <v>-1.628068247888617</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>7.87</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>7.87</v>
       </c>
       <c r="AG30">
-        <v>-162.8</v>
+        <v>-1983.43</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>0.003119339508595029</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>0.04140579786394486</v>
       </c>
       <c r="AJ30">
-        <v>-0.0909548019442427</v>
+        <v>-3.730565952564562</v>
       </c>
       <c r="AK30">
-        <v>7.864734299516902</v>
+        <v>1.101153100936582</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="AM30">
-        <v>-0.424</v>
+        <v>-177.899</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>0.1142235123367199</v>
+      </c>
+      <c r="AO30">
+        <v>224.9169435215947</v>
       </c>
       <c r="AP30">
-        <v>-2.239339752407153</v>
+        <v>-28.78708272859216</v>
       </c>
       <c r="AQ30">
-        <v>-169.5754716981132</v>
+        <v>-0.3805530104160226</v>
       </c>
     </row>
   </sheetData>
